--- a/Code/Results/Cases/Case_4_83/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_83/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.98919155637037</v>
+        <v>13.67350212159806</v>
       </c>
       <c r="C2">
-        <v>15.19233230509499</v>
+        <v>8.81126097626035</v>
       </c>
       <c r="D2">
-        <v>10.34179986975413</v>
+        <v>14.51525121808</v>
       </c>
       <c r="E2">
-        <v>10.01217314172369</v>
+        <v>15.72606084443388</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>21.77628966012106</v>
+        <v>29.52208177275459</v>
       </c>
       <c r="H2">
-        <v>8.486146118353474</v>
+        <v>14.50513903438526</v>
       </c>
       <c r="I2">
-        <v>11.39464911012296</v>
+        <v>20.15252941985201</v>
       </c>
       <c r="J2">
-        <v>5.177401659605065</v>
+        <v>9.242276053008275</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16.03653566443756</v>
+        <v>17.50286746444741</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>13.88663434191073</v>
+        <v>22.17773825202757</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.63188883752286</v>
+        <v>13.04582792188591</v>
       </c>
       <c r="C3">
-        <v>14.23401888179462</v>
+        <v>8.289227521766202</v>
       </c>
       <c r="D3">
-        <v>10.0541097997361</v>
+        <v>14.50879948820142</v>
       </c>
       <c r="E3">
-        <v>9.896088790908312</v>
+        <v>15.75826732128459</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>21.34706257949803</v>
+        <v>29.62996516628703</v>
       </c>
       <c r="H3">
-        <v>8.556425989568632</v>
+        <v>14.5671618011122</v>
       </c>
       <c r="I3">
-        <v>11.74141887789837</v>
+        <v>20.29641694033278</v>
       </c>
       <c r="J3">
-        <v>5.233989227779309</v>
+        <v>9.268780386819014</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.15636730547021</v>
+        <v>17.29728884361743</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>13.8835120315307</v>
+        <v>22.2794089944006</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.7498504673912</v>
+        <v>12.6446244193319</v>
       </c>
       <c r="C4">
-        <v>13.61213806927973</v>
+        <v>7.950714316067343</v>
       </c>
       <c r="D4">
-        <v>9.880699720286787</v>
+        <v>14.50797936462856</v>
       </c>
       <c r="E4">
-        <v>9.831897312648547</v>
+        <v>15.78118091454572</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>21.11758077967247</v>
+        <v>29.70838335612286</v>
       </c>
       <c r="H4">
-        <v>8.607313902405107</v>
+        <v>14.60815162224607</v>
       </c>
       <c r="I4">
-        <v>11.9658118209278</v>
+        <v>20.38975538163017</v>
       </c>
       <c r="J4">
-        <v>5.270616975794399</v>
+        <v>9.286032078911875</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.59314571894984</v>
+        <v>17.17182305337649</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>13.89959832820132</v>
+        <v>22.34786515515399</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.37815496516671</v>
+        <v>12.4773467639281</v>
       </c>
       <c r="C5">
-        <v>13.35030953128127</v>
+        <v>7.808308640843811</v>
       </c>
       <c r="D5">
-        <v>9.81093119106947</v>
+        <v>14.50843644136875</v>
       </c>
       <c r="E5">
-        <v>9.807496544937578</v>
+        <v>15.79130656441429</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>21.03248230309659</v>
+        <v>29.74338098205402</v>
       </c>
       <c r="H5">
-        <v>8.629908456124124</v>
+        <v>14.62558574328209</v>
       </c>
       <c r="I5">
-        <v>12.06001828020335</v>
+        <v>20.42904731462645</v>
       </c>
       <c r="J5">
-        <v>5.286010852394422</v>
+        <v>9.293308665519858</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.35809090145047</v>
+        <v>17.1209353591098</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>13.91047133833131</v>
+        <v>22.37727267096243</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.31569439514887</v>
+        <v>12.4493480616673</v>
       </c>
       <c r="C6">
-        <v>13.30632590759862</v>
+        <v>7.784395144455853</v>
       </c>
       <c r="D6">
-        <v>9.799402875571277</v>
+        <v>14.50856016139156</v>
       </c>
       <c r="E6">
-        <v>9.803550200276828</v>
+        <v>15.79303549052286</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>21.01885480555092</v>
+        <v>29.74937539028754</v>
       </c>
       <c r="H6">
-        <v>8.633769945734477</v>
+        <v>14.62852476210308</v>
       </c>
       <c r="I6">
-        <v>12.07582497137145</v>
+        <v>20.43564757862314</v>
       </c>
       <c r="J6">
-        <v>5.288595092549468</v>
+        <v>9.294531832089424</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.31873231102663</v>
+        <v>17.11250146834038</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>13.91253138527796</v>
+        <v>22.38224687856298</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.74488730689996</v>
+        <v>12.64238350129788</v>
       </c>
       <c r="C7">
-        <v>13.60864097467784</v>
+        <v>7.94881174194957</v>
       </c>
       <c r="D7">
-        <v>9.879755051071795</v>
+        <v>14.50798232356752</v>
       </c>
       <c r="E7">
-        <v>9.831561152797001</v>
+        <v>15.78131428283712</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>21.1163992646412</v>
+        <v>29.70884305921656</v>
       </c>
       <c r="H7">
-        <v>8.607611213576297</v>
+        <v>14.60838378832172</v>
       </c>
       <c r="I7">
-        <v>11.96707127519806</v>
+        <v>20.3902802008187</v>
       </c>
       <c r="J7">
-        <v>5.270822696015769</v>
+        <v>9.286129215281296</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.58999782000428</v>
+        <v>17.17113572474809</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>13.89972776236057</v>
+        <v>22.34825564385347</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.53127226742649</v>
+        <v>13.46046722865782</v>
       </c>
       <c r="C8">
-        <v>14.86885467313265</v>
+        <v>8.635029294615665</v>
       </c>
       <c r="D8">
-        <v>10.24198359517762</v>
+        <v>14.51237566284191</v>
       </c>
       <c r="E8">
-        <v>9.970663855438961</v>
+        <v>15.73651359796941</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>21.62114801112145</v>
+        <v>29.5567406145908</v>
       </c>
       <c r="H8">
-        <v>8.508718981673384</v>
+        <v>14.5259205913094</v>
       </c>
       <c r="I8">
-        <v>11.51175494381484</v>
+        <v>20.20110641286695</v>
       </c>
       <c r="J8">
-        <v>5.196518686084571</v>
+        <v>9.251212065103237</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.73788847602464</v>
+        <v>17.43185589356025</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>13.88169651872609</v>
+        <v>22.21153971315409</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.65005122858598</v>
+        <v>14.93226522774042</v>
       </c>
       <c r="C9">
-        <v>17.07479486820118</v>
+        <v>9.835958052161626</v>
       </c>
       <c r="D9">
-        <v>10.97438541518301</v>
+        <v>14.54583538462547</v>
       </c>
       <c r="E9">
-        <v>10.30051723834644</v>
+        <v>15.67360690164147</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>22.88537096476777</v>
+        <v>29.35594345712436</v>
       </c>
       <c r="H9">
-        <v>8.380303810636432</v>
+        <v>14.38731233867551</v>
       </c>
       <c r="I9">
-        <v>10.71648380095991</v>
+        <v>19.86970375585333</v>
       </c>
       <c r="J9">
-        <v>5.066035838117441</v>
+        <v>9.190477437762357</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17.80150369593617</v>
+        <v>17.94698244356497</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>13.99826071061139</v>
+        <v>21.9915141638164</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.71013989270233</v>
+        <v>15.92511900178011</v>
       </c>
       <c r="C10">
-        <v>18.53489107654927</v>
+        <v>10.62807503636478</v>
       </c>
       <c r="D10">
-        <v>11.52149367180092</v>
+        <v>14.5854283956654</v>
       </c>
       <c r="E10">
-        <v>10.57858885463782</v>
+        <v>15.64264982952364</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>23.98402145279744</v>
+        <v>29.26890864732411</v>
       </c>
       <c r="H10">
-        <v>8.33184132056479</v>
+        <v>14.29960339142938</v>
       </c>
       <c r="I10">
-        <v>10.20283051296597</v>
+        <v>19.65029593426146</v>
       </c>
       <c r="J10">
-        <v>4.979910285589111</v>
+        <v>9.150542792987622</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>19.34136480311978</v>
+        <v>18.32489185979778</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>14.18833936385746</v>
+        <v>21.85947755525924</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.59790588867359</v>
+        <v>16.35636048701773</v>
       </c>
       <c r="C11">
-        <v>19.16467312064843</v>
+        <v>10.96860042113303</v>
       </c>
       <c r="D11">
-        <v>11.77153443670644</v>
+        <v>14.60666047585705</v>
       </c>
       <c r="E11">
-        <v>10.71299003303307</v>
+        <v>15.63188824767797</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>24.52053114607449</v>
+        <v>29.24264367659019</v>
       </c>
       <c r="H11">
-        <v>8.321114130257129</v>
+        <v>14.26277934117833</v>
       </c>
       <c r="I11">
-        <v>9.987660362640934</v>
+        <v>19.55570087665809</v>
       </c>
       <c r="J11">
-        <v>4.942965199023337</v>
+        <v>9.133386932911421</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>20.02030253705321</v>
+        <v>18.49608577466268</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>14.2998113649443</v>
+        <v>21.80590605163645</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.92705078459854</v>
+        <v>16.51664529809312</v>
       </c>
       <c r="C12">
-        <v>19.39824720833949</v>
+        <v>11.09468697807969</v>
       </c>
       <c r="D12">
-        <v>11.86632789426342</v>
+        <v>14.61515952813098</v>
       </c>
       <c r="E12">
-        <v>10.76502926481398</v>
+        <v>15.62829100035025</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>24.72892745358918</v>
+        <v>29.23462747551653</v>
       </c>
       <c r="H12">
-        <v>8.318796166167527</v>
+        <v>14.24927811984216</v>
       </c>
       <c r="I12">
-        <v>9.909167635743975</v>
+        <v>19.52062981803808</v>
       </c>
       <c r="J12">
-        <v>4.929308174770179</v>
+        <v>9.127035317377246</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>20.27215634446991</v>
+        <v>18.56075942310973</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>14.34579219107124</v>
+        <v>21.78655874646347</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.85647518953391</v>
+        <v>16.48226042838242</v>
       </c>
       <c r="C13">
-        <v>19.34816056552519</v>
+        <v>11.06765948612721</v>
       </c>
       <c r="D13">
-        <v>11.84590843158107</v>
+        <v>14.61330876741383</v>
       </c>
       <c r="E13">
-        <v>10.75377067151167</v>
+        <v>15.62904447172816</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>24.68381379791524</v>
+        <v>29.23626788978135</v>
       </c>
       <c r="H13">
-        <v>8.319215918230892</v>
+        <v>14.25216611920466</v>
       </c>
       <c r="I13">
-        <v>9.925933746020592</v>
+        <v>19.52814963588273</v>
       </c>
       <c r="J13">
-        <v>4.932234428270858</v>
+        <v>9.128396811446203</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>20.2181473338001</v>
+        <v>18.54683842398975</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>14.33571916171705</v>
+        <v>21.79068368467491</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.62512537736266</v>
+        <v>16.3696080973552</v>
       </c>
       <c r="C14">
-        <v>19.18398757310407</v>
+        <v>10.97903107977854</v>
       </c>
       <c r="D14">
-        <v>11.77933127843568</v>
+        <v>14.607350526615</v>
       </c>
       <c r="E14">
-        <v>10.71724835455342</v>
+        <v>15.63158272000804</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>24.53757150656003</v>
+        <v>29.24194543417101</v>
       </c>
       <c r="H14">
-        <v>8.320887794820054</v>
+        <v>14.2616596982429</v>
       </c>
       <c r="I14">
-        <v>9.981140763133812</v>
+        <v>19.55280052628485</v>
       </c>
       <c r="J14">
-        <v>4.941834873515758</v>
+        <v>9.132861479135759</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>20.04112743964662</v>
+        <v>18.50140988071587</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>14.3035177576157</v>
+        <v>21.80429548635792</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.48250316399734</v>
+        <v>16.30021021008644</v>
       </c>
       <c r="C15">
-        <v>19.08278862375961</v>
+        <v>10.9243704421808</v>
       </c>
       <c r="D15">
-        <v>11.73856340341207</v>
+        <v>14.60376056280328</v>
       </c>
       <c r="E15">
-        <v>10.69502663355204</v>
+        <v>15.63319971919056</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>24.44867354239644</v>
+        <v>29.24567476872663</v>
       </c>
       <c r="H15">
-        <v>8.3221425266997</v>
+        <v>14.26753254445291</v>
       </c>
       <c r="I15">
-        <v>10.01535642057687</v>
+        <v>19.56799759255551</v>
       </c>
       <c r="J15">
-        <v>4.947759209955232</v>
+        <v>9.135615080606749</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>19.93201654451845</v>
+        <v>18.47356208596494</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>14.28428919252405</v>
+        <v>21.81275556039751</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.65113433599349</v>
+        <v>15.89651829141163</v>
       </c>
       <c r="C16">
-        <v>18.4930438801158</v>
+        <v>10.605420909544</v>
       </c>
       <c r="D16">
-        <v>11.50517105460602</v>
+        <v>14.58410529218442</v>
       </c>
       <c r="E16">
-        <v>10.56996516860126</v>
+        <v>15.64341998697994</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>23.94969437611755</v>
+        <v>29.27089448935221</v>
       </c>
       <c r="H16">
-        <v>8.332780019945609</v>
+        <v>14.30207189889819</v>
       </c>
       <c r="I16">
-        <v>10.21729132230427</v>
+        <v>19.65658288831689</v>
       </c>
       <c r="J16">
-        <v>4.982370680743204</v>
+        <v>9.151684271499368</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>19.29625704297639</v>
+        <v>18.31368513328296</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>14.18157266232329</v>
+        <v>21.86310969399478</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.12851584029189</v>
+        <v>15.64357544960425</v>
       </c>
       <c r="C17">
-        <v>18.12246403930555</v>
+        <v>10.40466961758881</v>
       </c>
       <c r="D17">
-        <v>11.36224491179457</v>
+        <v>14.57286953285628</v>
       </c>
       <c r="E17">
-        <v>10.49527446584214</v>
+        <v>15.65054069402967</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>23.65296264114211</v>
+        <v>29.28978954381593</v>
       </c>
       <c r="H17">
-        <v>8.342286664883019</v>
+        <v>14.32404903900719</v>
       </c>
       <c r="I17">
-        <v>10.34612479798196</v>
+        <v>19.71226278513386</v>
       </c>
       <c r="J17">
-        <v>5.004183947127008</v>
+        <v>9.161800762601402</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>18.89682674074198</v>
+        <v>18.21538543875294</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>14.12509096835522</v>
+        <v>21.89566714012171</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.82326732539665</v>
+        <v>15.49617196759289</v>
       </c>
       <c r="C18">
-        <v>17.90607350339047</v>
+        <v>10.28733840177937</v>
       </c>
       <c r="D18">
-        <v>11.28014955073504</v>
+        <v>14.56671048558664</v>
       </c>
       <c r="E18">
-        <v>10.45305804050203</v>
+        <v>15.65494890811794</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>23.48575155361929</v>
+        <v>29.30191126039123</v>
       </c>
       <c r="H18">
-        <v>8.348812808265416</v>
+        <v>14.33697909713682</v>
       </c>
       <c r="I18">
-        <v>10.42194428902635</v>
+        <v>19.74477919988858</v>
       </c>
       <c r="J18">
-        <v>5.016939814248345</v>
+        <v>9.167714646847587</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>18.66360548518045</v>
+        <v>18.15878132734986</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>14.0949481580078</v>
+        <v>21.91500411985241</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.71911443503065</v>
+        <v>15.44593708369034</v>
       </c>
       <c r="C19">
-        <v>17.83224933177393</v>
+        <v>10.24729236904198</v>
       </c>
       <c r="D19">
-        <v>11.25237462302706</v>
+        <v>14.56467737973853</v>
       </c>
       <c r="E19">
-        <v>10.43889176373683</v>
+        <v>15.6564951235228</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>23.42973251287847</v>
+        <v>29.30623036753837</v>
       </c>
       <c r="H19">
-        <v>8.351200691407834</v>
+        <v>14.3414066639702</v>
       </c>
       <c r="I19">
-        <v>10.44790140476339</v>
+        <v>19.75587299306377</v>
       </c>
       <c r="J19">
-        <v>5.021294362635889</v>
+        <v>9.169733339833023</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>18.58404126967402</v>
+        <v>18.13960658525501</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>14.08513940658494</v>
+        <v>21.92165602662184</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.1846304810483</v>
+        <v>15.67070073260817</v>
       </c>
       <c r="C20">
-        <v>18.16224824914287</v>
+        <v>10.42623300908545</v>
       </c>
       <c r="D20">
-        <v>11.37744850464648</v>
+        <v>14.57403422043556</v>
       </c>
       <c r="E20">
-        <v>10.5031483909743</v>
+        <v>15.64975032925454</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>23.68419234666518</v>
+        <v>29.28764826905316</v>
       </c>
       <c r="H20">
-        <v>8.341164315177222</v>
+        <v>14.3216795768109</v>
       </c>
       <c r="I20">
-        <v>10.33223025849071</v>
+        <v>19.70628476707108</v>
       </c>
       <c r="J20">
-        <v>5.001840127573566</v>
+        <v>9.160714000416972</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>18.93970644060255</v>
+        <v>18.22585667679267</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>14.13085965299977</v>
+        <v>21.89213808936498</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.69326872586354</v>
+        <v>16.40277927865087</v>
       </c>
       <c r="C21">
-        <v>19.2323420931119</v>
+        <v>11.00514117958277</v>
       </c>
       <c r="D21">
-        <v>11.79888407675547</v>
+        <v>14.60908818766946</v>
       </c>
       <c r="E21">
-        <v>10.72794472738242</v>
+        <v>15.63082420193958</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>24.58038487372894</v>
+        <v>29.2402253320035</v>
       </c>
       <c r="H21">
-        <v>8.320348442606958</v>
+        <v>14.25885916600513</v>
       </c>
       <c r="I21">
-        <v>9.964841147120866</v>
+        <v>19.54553960446622</v>
       </c>
       <c r="J21">
-        <v>4.939005841267263</v>
+        <v>9.131546167535786</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>20.09326429336903</v>
+        <v>18.51475791388605</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>14.31287249149012</v>
+        <v>21.80027184174772</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.63829375639452</v>
+        <v>16.86362131888654</v>
       </c>
       <c r="C22">
-        <v>19.90310927594082</v>
+        <v>11.36680008431993</v>
       </c>
       <c r="D22">
-        <v>12.07492837695594</v>
+        <v>14.63467062077671</v>
       </c>
       <c r="E22">
-        <v>10.88153596669025</v>
+        <v>15.62124067285214</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>25.19656455803052</v>
+        <v>29.22048467606409</v>
       </c>
       <c r="H22">
-        <v>8.316966760871344</v>
+        <v>14.22038647132577</v>
       </c>
       <c r="I22">
-        <v>9.742338832137381</v>
+        <v>19.44485530214316</v>
       </c>
       <c r="J22">
-        <v>4.899889330665398</v>
+        <v>9.113327927706212</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>20.81664084699416</v>
+        <v>18.70265280383883</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>14.45386679419397</v>
+        <v>21.74570793155543</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.13763986720011</v>
+        <v>16.61929632036546</v>
       </c>
       <c r="C23">
-        <v>19.54771070215426</v>
+        <v>11.17530654163157</v>
       </c>
       <c r="D23">
-        <v>11.92755915710805</v>
+        <v>14.62077378182413</v>
       </c>
       <c r="E23">
-        <v>10.79894837437308</v>
+        <v>15.6261006042742</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>24.8649289279255</v>
+        <v>29.22998710342849</v>
       </c>
       <c r="H23">
-        <v>8.317796940816892</v>
+        <v>14.24068328304974</v>
       </c>
       <c r="I23">
-        <v>9.859357943077162</v>
+        <v>19.49819228655154</v>
       </c>
       <c r="J23">
-        <v>4.920583794169675</v>
+        <v>9.122974188246314</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>20.43333328807296</v>
+        <v>18.60247015341934</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>14.37654516842384</v>
+        <v>21.77432690201008</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.15927597113951</v>
+        <v>15.65844356328721</v>
       </c>
       <c r="C24">
-        <v>18.14427221179698</v>
+        <v>10.41649016858207</v>
       </c>
       <c r="D24">
-        <v>11.37057472286158</v>
+        <v>14.57350672871712</v>
       </c>
       <c r="E24">
-        <v>10.49958633411231</v>
+        <v>15.65010667379443</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>23.67006285285294</v>
+        <v>29.28861241961505</v>
       </c>
       <c r="H24">
-        <v>8.341668434596357</v>
+        <v>14.32274989148446</v>
       </c>
       <c r="I24">
-        <v>10.3385065486357</v>
+        <v>19.70898585503038</v>
       </c>
       <c r="J24">
-        <v>5.002899099204911</v>
+        <v>9.161205020991193</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>18.92033169477957</v>
+        <v>18.22112290750701</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>14.12824438880993</v>
+        <v>21.89373164460492</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.84720126220783</v>
+        <v>14.54916722230475</v>
       </c>
       <c r="C25">
-        <v>16.50635146976143</v>
+        <v>9.526810021621786</v>
       </c>
       <c r="D25">
-        <v>10.77436842236443</v>
+        <v>14.53413589754604</v>
       </c>
       <c r="E25">
-        <v>10.20506351664836</v>
+        <v>15.68794804464946</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>22.51357362224951</v>
+        <v>29.39971258936187</v>
       </c>
       <c r="H25">
-        <v>8.407431458946538</v>
+        <v>14.42233194689059</v>
       </c>
       <c r="I25">
-        <v>10.92015222321137</v>
+        <v>19.95512634510855</v>
       </c>
       <c r="J25">
-        <v>5.09966126739444</v>
+        <v>9.206082515844187</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>17.26407332250155</v>
+        <v>17.80751573780344</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>13.94920800433974</v>
+        <v>22.04585801213883</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_83/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_83/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.67350212159806</v>
+        <v>20.98919155637033</v>
       </c>
       <c r="C2">
-        <v>8.81126097626035</v>
+        <v>15.19233230509491</v>
       </c>
       <c r="D2">
-        <v>14.51525121808</v>
+        <v>10.34179986975406</v>
       </c>
       <c r="E2">
-        <v>15.72606084443388</v>
+        <v>10.01217314172355</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>29.52208177275459</v>
+        <v>21.77628966012139</v>
       </c>
       <c r="H2">
-        <v>14.50513903438526</v>
+        <v>8.486146118353592</v>
       </c>
       <c r="I2">
-        <v>20.15252941985201</v>
+        <v>11.39464911012317</v>
       </c>
       <c r="J2">
-        <v>9.242276053008275</v>
+        <v>5.177401659605001</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.50286746444741</v>
+        <v>16.03653566443754</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>22.17773825202757</v>
+        <v>13.88663434191093</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.04582792188591</v>
+        <v>19.6318888375229</v>
       </c>
       <c r="C3">
-        <v>8.289227521766202</v>
+        <v>14.23401888179455</v>
       </c>
       <c r="D3">
-        <v>14.50879948820142</v>
+        <v>10.05410979973595</v>
       </c>
       <c r="E3">
-        <v>15.75826732128459</v>
+        <v>9.896088790908223</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>29.62996516628703</v>
+        <v>21.34706257949789</v>
       </c>
       <c r="H3">
-        <v>14.5671618011122</v>
+        <v>8.556425989568634</v>
       </c>
       <c r="I3">
-        <v>20.29641694033278</v>
+        <v>11.74141887789825</v>
       </c>
       <c r="J3">
-        <v>9.268780386819014</v>
+        <v>5.233989227779376</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.29728884361743</v>
+        <v>15.15636730547019</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>22.2794089944006</v>
+        <v>13.88351203153063</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.6446244193319</v>
+        <v>18.74985046739116</v>
       </c>
       <c r="C4">
-        <v>7.950714316067343</v>
+        <v>13.61213806927971</v>
       </c>
       <c r="D4">
-        <v>14.50797936462856</v>
+        <v>9.880699720286906</v>
       </c>
       <c r="E4">
-        <v>15.78118091454572</v>
+        <v>9.831897312648593</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>29.70838335612286</v>
+        <v>21.11758077967289</v>
       </c>
       <c r="H4">
-        <v>14.60815162224607</v>
+        <v>8.607313902405119</v>
       </c>
       <c r="I4">
-        <v>20.38975538163017</v>
+        <v>11.96581182092798</v>
       </c>
       <c r="J4">
-        <v>9.286032078911875</v>
+        <v>5.270616975794522</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>17.17182305337649</v>
+        <v>14.59314571894986</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>22.34786515515399</v>
+        <v>13.89959832820149</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.4773467639281</v>
+        <v>18.37815496516669</v>
       </c>
       <c r="C5">
-        <v>7.808308640843811</v>
+        <v>13.35030953128141</v>
       </c>
       <c r="D5">
-        <v>14.50843644136875</v>
+        <v>9.810931191069496</v>
       </c>
       <c r="E5">
-        <v>15.79130656441429</v>
+        <v>9.80749654493764</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>29.74338098205402</v>
+        <v>21.03248230309646</v>
       </c>
       <c r="H5">
-        <v>14.62558574328209</v>
+        <v>8.629908456124017</v>
       </c>
       <c r="I5">
-        <v>20.42904731462645</v>
+        <v>12.06001828020337</v>
       </c>
       <c r="J5">
-        <v>9.293308665519858</v>
+        <v>5.286010852394425</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>17.1209353591098</v>
+        <v>14.35809090145047</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>22.37727267096243</v>
+        <v>13.91047133833126</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.4493480616673</v>
+        <v>18.31569439514888</v>
       </c>
       <c r="C6">
-        <v>7.784395144455853</v>
+        <v>13.30632590759861</v>
       </c>
       <c r="D6">
-        <v>14.50856016139156</v>
+        <v>9.799402875571198</v>
       </c>
       <c r="E6">
-        <v>15.79303549052286</v>
+        <v>9.803550200276785</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>29.74937539028754</v>
+        <v>21.01885480555104</v>
       </c>
       <c r="H6">
-        <v>14.62852476210308</v>
+        <v>8.633769945734484</v>
       </c>
       <c r="I6">
-        <v>20.43564757862314</v>
+        <v>12.07582497137147</v>
       </c>
       <c r="J6">
-        <v>9.294531832089424</v>
+        <v>5.288595092549405</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>17.11250146834038</v>
+        <v>14.31873231102663</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>22.38224687856298</v>
+        <v>13.91253138527802</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.64238350129788</v>
+        <v>18.74488730689994</v>
       </c>
       <c r="C7">
-        <v>7.94881174194957</v>
+        <v>13.60864097467784</v>
       </c>
       <c r="D7">
-        <v>14.50798232356752</v>
+        <v>9.879755051071697</v>
       </c>
       <c r="E7">
-        <v>15.78131428283712</v>
+        <v>9.831561152796848</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>29.70884305921656</v>
+        <v>21.11639926464122</v>
       </c>
       <c r="H7">
-        <v>14.60838378832172</v>
+        <v>8.607611213576307</v>
       </c>
       <c r="I7">
-        <v>20.3902802008187</v>
+        <v>11.96707127519807</v>
       </c>
       <c r="J7">
-        <v>9.286129215281296</v>
+        <v>5.270822696015641</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>17.17113572474809</v>
+        <v>14.58999782000426</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>22.34825564385347</v>
+        <v>13.89972776236059</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.46046722865782</v>
+        <v>20.5312722674265</v>
       </c>
       <c r="C8">
-        <v>8.635029294615665</v>
+        <v>14.86885467313259</v>
       </c>
       <c r="D8">
-        <v>14.51237566284191</v>
+        <v>10.24198359517763</v>
       </c>
       <c r="E8">
-        <v>15.73651359796941</v>
+        <v>9.970663855439019</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>29.5567406145908</v>
+        <v>21.62114801112148</v>
       </c>
       <c r="H8">
-        <v>14.5259205913094</v>
+        <v>8.508718981673388</v>
       </c>
       <c r="I8">
-        <v>20.20110641286695</v>
+        <v>11.51175494381479</v>
       </c>
       <c r="J8">
-        <v>9.251212065103237</v>
+        <v>5.196518686084669</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.43185589356025</v>
+        <v>15.73788847602465</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>22.21153971315409</v>
+        <v>13.88169651872611</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.93226522774042</v>
+        <v>23.65005122858595</v>
       </c>
       <c r="C9">
-        <v>9.835958052161626</v>
+        <v>17.07479486820111</v>
       </c>
       <c r="D9">
-        <v>14.54583538462547</v>
+        <v>10.97438541518305</v>
       </c>
       <c r="E9">
-        <v>15.67360690164147</v>
+        <v>10.30051723834648</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>29.35594345712436</v>
+        <v>22.88537096476794</v>
       </c>
       <c r="H9">
-        <v>14.38731233867551</v>
+        <v>8.38030381063648</v>
       </c>
       <c r="I9">
-        <v>19.86970375585333</v>
+        <v>10.71648380096001</v>
       </c>
       <c r="J9">
-        <v>9.190477437762357</v>
+        <v>5.066035838117535</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17.94698244356497</v>
+        <v>17.80150369593619</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>21.9915141638164</v>
+        <v>13.9982607106115</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.92511900178011</v>
+        <v>25.71013989270235</v>
       </c>
       <c r="C10">
-        <v>10.62807503636478</v>
+        <v>18.53489107654934</v>
       </c>
       <c r="D10">
-        <v>14.5854283956654</v>
+        <v>11.52149367180087</v>
       </c>
       <c r="E10">
-        <v>15.64264982952364</v>
+        <v>10.57858885463781</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>29.26890864732411</v>
+        <v>23.98402145279747</v>
       </c>
       <c r="H10">
-        <v>14.29960339142938</v>
+        <v>8.331841320564809</v>
       </c>
       <c r="I10">
-        <v>19.65029593426146</v>
+        <v>10.20283051296597</v>
       </c>
       <c r="J10">
-        <v>9.150542792987622</v>
+        <v>4.97991028558913</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>18.32489185979778</v>
+        <v>19.34136480311978</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>21.85947755525924</v>
+        <v>14.18833936385744</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.35636048701773</v>
+        <v>26.59790588867357</v>
       </c>
       <c r="C11">
-        <v>10.96860042113303</v>
+        <v>19.16467312064843</v>
       </c>
       <c r="D11">
-        <v>14.60666047585705</v>
+        <v>11.77153443670645</v>
       </c>
       <c r="E11">
-        <v>15.63188824767797</v>
+        <v>10.71299003303309</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>29.24264367659019</v>
+        <v>24.52053114607454</v>
       </c>
       <c r="H11">
-        <v>14.26277934117833</v>
+        <v>8.32111413025722</v>
       </c>
       <c r="I11">
-        <v>19.55570087665809</v>
+        <v>9.987660362640957</v>
       </c>
       <c r="J11">
-        <v>9.133386932911421</v>
+        <v>4.942965199023337</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.49608577466268</v>
+        <v>20.0203025370532</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>21.80590605163645</v>
+        <v>14.29981136494432</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.51664529809312</v>
+        <v>26.92705078459853</v>
       </c>
       <c r="C12">
-        <v>11.09468697807969</v>
+        <v>19.39824720833946</v>
       </c>
       <c r="D12">
-        <v>14.61515952813098</v>
+        <v>11.86632789426337</v>
       </c>
       <c r="E12">
-        <v>15.62829100035025</v>
+        <v>10.76502926481391</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>29.23462747551653</v>
+        <v>24.7289274535894</v>
       </c>
       <c r="H12">
-        <v>14.24927811984216</v>
+        <v>8.318796166167552</v>
       </c>
       <c r="I12">
-        <v>19.52062981803808</v>
+        <v>9.909167635744124</v>
       </c>
       <c r="J12">
-        <v>9.127035317377246</v>
+        <v>4.929308174770148</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.56075942310973</v>
+        <v>20.27215634446992</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>21.78655874646347</v>
+        <v>14.34579219107135</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.48226042838242</v>
+        <v>26.85647518953389</v>
       </c>
       <c r="C13">
-        <v>11.06765948612721</v>
+        <v>19.34816056552514</v>
       </c>
       <c r="D13">
-        <v>14.61330876741383</v>
+        <v>11.84590843158112</v>
       </c>
       <c r="E13">
-        <v>15.62904447172816</v>
+        <v>10.7537706715117</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>29.23626788978135</v>
+        <v>24.68381379791531</v>
       </c>
       <c r="H13">
-        <v>14.25216611920466</v>
+        <v>8.319215918230904</v>
       </c>
       <c r="I13">
-        <v>19.52814963588273</v>
+        <v>9.925933746020672</v>
       </c>
       <c r="J13">
-        <v>9.128396811446203</v>
+        <v>4.932234428270864</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.54683842398975</v>
+        <v>20.21814733380008</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>21.79068368467491</v>
+        <v>14.33571916171713</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.3696080973552</v>
+        <v>26.62512537736259</v>
       </c>
       <c r="C14">
-        <v>10.97903107977854</v>
+        <v>19.18398757310412</v>
       </c>
       <c r="D14">
-        <v>14.607350526615</v>
+        <v>11.77933127843574</v>
       </c>
       <c r="E14">
-        <v>15.63158272000804</v>
+        <v>10.71724835455346</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>29.24194543417101</v>
+        <v>24.53757150656007</v>
       </c>
       <c r="H14">
-        <v>14.2616596982429</v>
+        <v>8.320887794820207</v>
       </c>
       <c r="I14">
-        <v>19.55280052628485</v>
+        <v>9.98114076313399</v>
       </c>
       <c r="J14">
-        <v>9.132861479135759</v>
+        <v>4.941834873515729</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.50140988071587</v>
+        <v>20.04112743964659</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>21.80429548635792</v>
+        <v>14.30351775761582</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.30021021008644</v>
+        <v>26.48250316399734</v>
       </c>
       <c r="C15">
-        <v>10.9243704421808</v>
+        <v>19.08278862375955</v>
       </c>
       <c r="D15">
-        <v>14.60376056280328</v>
+        <v>11.73856340341206</v>
       </c>
       <c r="E15">
-        <v>15.63319971919056</v>
+        <v>10.69502663355211</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>29.24567476872663</v>
+        <v>24.44867354239648</v>
       </c>
       <c r="H15">
-        <v>14.26753254445291</v>
+        <v>8.322142526699762</v>
       </c>
       <c r="I15">
-        <v>19.56799759255551</v>
+        <v>10.0153564205769</v>
       </c>
       <c r="J15">
-        <v>9.135615080606749</v>
+        <v>4.947759209955327</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.47356208596494</v>
+        <v>19.93201654451843</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>21.81275556039751</v>
+        <v>14.28428919252409</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.89651829141163</v>
+        <v>25.65113433599348</v>
       </c>
       <c r="C16">
-        <v>10.605420909544</v>
+        <v>18.49304388011578</v>
       </c>
       <c r="D16">
-        <v>14.58410529218442</v>
+        <v>11.50517105460609</v>
       </c>
       <c r="E16">
-        <v>15.64341998697994</v>
+        <v>10.56996516860134</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>29.27089448935221</v>
+        <v>23.94969437611756</v>
       </c>
       <c r="H16">
-        <v>14.30207189889819</v>
+        <v>8.332780019945615</v>
       </c>
       <c r="I16">
-        <v>19.65658288831689</v>
+        <v>10.21729132230426</v>
       </c>
       <c r="J16">
-        <v>9.151684271499368</v>
+        <v>4.982370680743265</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>18.31368513328296</v>
+        <v>19.29625704297636</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>21.86310969399478</v>
+        <v>14.1815726623233</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.64357544960425</v>
+        <v>25.12851584029186</v>
       </c>
       <c r="C17">
-        <v>10.40466961758881</v>
+        <v>18.12246403930553</v>
       </c>
       <c r="D17">
-        <v>14.57286953285628</v>
+        <v>11.36224491179461</v>
       </c>
       <c r="E17">
-        <v>15.65054069402967</v>
+        <v>10.49527446584217</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>29.28978954381593</v>
+        <v>23.6529626411422</v>
       </c>
       <c r="H17">
-        <v>14.32404903900719</v>
+        <v>8.342286664883112</v>
       </c>
       <c r="I17">
-        <v>19.71226278513386</v>
+        <v>10.34612479798207</v>
       </c>
       <c r="J17">
-        <v>9.161800762601402</v>
+        <v>5.00418394712701</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>18.21538543875294</v>
+        <v>18.89682674074195</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>21.89566714012171</v>
+        <v>14.12509096835531</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.49617196759289</v>
+        <v>24.82326732539665</v>
       </c>
       <c r="C18">
-        <v>10.28733840177937</v>
+        <v>17.90607350339042</v>
       </c>
       <c r="D18">
-        <v>14.56671048558664</v>
+        <v>11.28014955073508</v>
       </c>
       <c r="E18">
-        <v>15.65494890811794</v>
+        <v>10.45305804050202</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>29.30191126039123</v>
+        <v>23.48575155361946</v>
       </c>
       <c r="H18">
-        <v>14.33697909713682</v>
+        <v>8.348812808265434</v>
       </c>
       <c r="I18">
-        <v>19.74477919988858</v>
+        <v>10.42194428902641</v>
       </c>
       <c r="J18">
-        <v>9.167714646847587</v>
+        <v>5.016939814248317</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>18.15878132734986</v>
+        <v>18.66360548518044</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>21.91500411985241</v>
+        <v>14.09494815800788</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.44593708369034</v>
+        <v>24.71911443503075</v>
       </c>
       <c r="C19">
-        <v>10.24729236904198</v>
+        <v>17.83224933177382</v>
       </c>
       <c r="D19">
-        <v>14.56467737973853</v>
+        <v>11.25237462302704</v>
       </c>
       <c r="E19">
-        <v>15.6564951235228</v>
+        <v>10.43889176373681</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>29.30623036753837</v>
+        <v>23.4297325128785</v>
       </c>
       <c r="H19">
-        <v>14.3414066639702</v>
+        <v>8.351200691407779</v>
       </c>
       <c r="I19">
-        <v>19.75587299306377</v>
+        <v>10.44790140476328</v>
       </c>
       <c r="J19">
-        <v>9.169733339833023</v>
+        <v>5.021294362635928</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>18.13960658525501</v>
+        <v>18.58404126967405</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>21.92165602662184</v>
+        <v>14.0851394065849</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.67070073260817</v>
+        <v>25.18463048104828</v>
       </c>
       <c r="C20">
-        <v>10.42623300908545</v>
+        <v>18.16224824914282</v>
       </c>
       <c r="D20">
-        <v>14.57403422043556</v>
+        <v>11.37744850464648</v>
       </c>
       <c r="E20">
-        <v>15.64975032925454</v>
+        <v>10.50314839097432</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>29.28764826905316</v>
+        <v>23.6841923466653</v>
       </c>
       <c r="H20">
-        <v>14.3216795768109</v>
+        <v>8.341164315177123</v>
       </c>
       <c r="I20">
-        <v>19.70628476707108</v>
+        <v>10.33223025849076</v>
       </c>
       <c r="J20">
-        <v>9.160714000416972</v>
+        <v>5.001840127573503</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>18.22585667679267</v>
+        <v>18.93970644060255</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>21.89213808936498</v>
+        <v>14.1308596529998</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.40277927865087</v>
+        <v>26.69326872586349</v>
       </c>
       <c r="C21">
-        <v>11.00514117958277</v>
+        <v>19.23234209311199</v>
       </c>
       <c r="D21">
-        <v>14.60908818766946</v>
+        <v>11.79888407675545</v>
       </c>
       <c r="E21">
-        <v>15.63082420193958</v>
+        <v>10.7279447273824</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>29.2402253320035</v>
+        <v>24.58038487372893</v>
       </c>
       <c r="H21">
-        <v>14.25885916600513</v>
+        <v>8.320348442606953</v>
       </c>
       <c r="I21">
-        <v>19.54553960446622</v>
+        <v>9.964841147120939</v>
       </c>
       <c r="J21">
-        <v>9.131546167535786</v>
+        <v>4.939005841267258</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.51475791388605</v>
+        <v>20.09326429336902</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>21.80027184174772</v>
+        <v>14.31287249149012</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.86362131888654</v>
+        <v>27.6382937563945</v>
       </c>
       <c r="C22">
-        <v>11.36680008431993</v>
+        <v>19.90310927594082</v>
       </c>
       <c r="D22">
-        <v>14.63467062077671</v>
+        <v>12.07492837695594</v>
       </c>
       <c r="E22">
-        <v>15.62124067285214</v>
+        <v>10.88153596669031</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>29.22048467606409</v>
+        <v>25.19656455803054</v>
       </c>
       <c r="H22">
-        <v>14.22038647132577</v>
+        <v>8.316966760871306</v>
       </c>
       <c r="I22">
-        <v>19.44485530214316</v>
+        <v>9.742338832137381</v>
       </c>
       <c r="J22">
-        <v>9.113327927706212</v>
+        <v>4.899889330665515</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>18.70265280383883</v>
+        <v>20.81664084699413</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>21.74570793155543</v>
+        <v>14.45386679419397</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.61929632036546</v>
+        <v>27.13763986720015</v>
       </c>
       <c r="C23">
-        <v>11.17530654163157</v>
+        <v>19.54771070215423</v>
       </c>
       <c r="D23">
-        <v>14.62077378182413</v>
+        <v>11.92755915710808</v>
       </c>
       <c r="E23">
-        <v>15.6261006042742</v>
+        <v>10.79894837437315</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>29.22998710342849</v>
+        <v>24.86492892792554</v>
       </c>
       <c r="H23">
-        <v>14.24068328304974</v>
+        <v>8.317796940816905</v>
       </c>
       <c r="I23">
-        <v>19.49819228655154</v>
+        <v>9.859357943077104</v>
       </c>
       <c r="J23">
-        <v>9.122974188246314</v>
+        <v>4.920583794169789</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.60247015341934</v>
+        <v>20.43333328807293</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>21.77432690201008</v>
+        <v>14.37654516842384</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.65844356328721</v>
+        <v>25.15927597113947</v>
       </c>
       <c r="C24">
-        <v>10.41649016858207</v>
+        <v>18.14427221179693</v>
       </c>
       <c r="D24">
-        <v>14.57350672871712</v>
+        <v>11.37057472286161</v>
       </c>
       <c r="E24">
-        <v>15.65010667379443</v>
+        <v>10.49958633411236</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>29.28861241961505</v>
+        <v>23.67006285285303</v>
       </c>
       <c r="H24">
-        <v>14.32274989148446</v>
+        <v>8.341668434596329</v>
       </c>
       <c r="I24">
-        <v>19.70898585503038</v>
+        <v>10.33850654863567</v>
       </c>
       <c r="J24">
-        <v>9.161205020991193</v>
+        <v>5.002899099204912</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>18.22112290750701</v>
+        <v>18.92033169477954</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>21.89373164460492</v>
+        <v>14.12824438880996</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.54916722230475</v>
+        <v>22.84720126220787</v>
       </c>
       <c r="C25">
-        <v>9.526810021621786</v>
+        <v>16.50635146976136</v>
       </c>
       <c r="D25">
-        <v>14.53413589754604</v>
+        <v>10.7743684223643</v>
       </c>
       <c r="E25">
-        <v>15.68794804464946</v>
+        <v>10.20506351664836</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>29.39971258936187</v>
+        <v>22.51357362224957</v>
       </c>
       <c r="H25">
-        <v>14.42233194689059</v>
+        <v>8.407431458946547</v>
       </c>
       <c r="I25">
-        <v>19.95512634510855</v>
+        <v>10.92015222321136</v>
       </c>
       <c r="J25">
-        <v>9.206082515844187</v>
+        <v>5.099661267394562</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>17.80751573780344</v>
+        <v>17.26407332250155</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>22.04585801213883</v>
+        <v>13.94920800433976</v>
       </c>
     </row>
   </sheetData>
